--- a/document/会员卡设计.xlsx
+++ b/document/会员卡设计.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\我的文件\微信卡包\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SpringTest\workspace\wechatcard\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,8 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="功能一览" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
-    <sheet name="页面Demo" sheetId="2" r:id="rId3"/>
+    <sheet name="页面Demo" sheetId="2" r:id="rId2"/>
+    <sheet name="功能说明" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">功能一览!$A$1:$F$16</definedName>
@@ -1031,6 +1031,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:AB46"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="2:28" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB2" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B46" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB46" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1076,35 +1107,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AB46"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="2" spans="2:28" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB2" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="2:28" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB46" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/document/会员卡设计.xlsx
+++ b/document/会员卡设计.xlsx
@@ -17,7 +17,7 @@
     <sheet name="功能说明" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">功能一览!$A$1:$F$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">功能一览!$A$1:$F$19</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -238,6 +238,34 @@
   </si>
   <si>
     <t>4、“电子卡号”只用于显示；实际用时，需要用到“会员卡号”列的值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wec_0060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015/8/18完成a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015/8/18完成b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015/8/18完成c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015/8/18完成d</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -329,7 +357,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -361,6 +389,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -830,7 +864,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E15"/>
+  <dimension ref="B2:E16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -862,7 +896,7 @@
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -888,7 +922,7 @@
       <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="12" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="7" t="s">
@@ -930,7 +964,7 @@
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -990,13 +1024,15 @@
       <c r="B13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="7"/>
+      <c r="E13" s="7" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="14" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="6" t="s">
@@ -1008,19 +1044,37 @@
       <c r="D14" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="7"/>
+      <c r="E14" s="7" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="15" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="11" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="4"/>
+      <c r="E15" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/document/会员卡设计.xlsx
+++ b/document/会员卡设计.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -266,6 +266,10 @@
   </si>
   <si>
     <t>2015/8/18完成d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -970,7 +974,9 @@
       <c r="D8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="9" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="3" t="s">
@@ -982,7 +988,9 @@
       <c r="D9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="10" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">

--- a/document/会员卡设计.xlsx
+++ b/document/会员卡设计.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SpringTest\workspace\wechatcard\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\我的文件\微信卡包\数据库\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
     <sheet name="功能说明" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">功能一览!$A$1:$F$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">功能一览!$A$1:$F$20</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,15 +66,6 @@
     <t>10</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>功能ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -241,10 +232,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>wec_0060</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -270,6 +257,18 @@
   </si>
   <si>
     <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wec_0035</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡密码修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18号新增</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -277,7 +276,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,6 +305,15 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -361,7 +369,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -399,6 +407,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -868,7 +882,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E16"/>
+  <dimension ref="B2:E17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -887,13 +901,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -901,13 +915,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -915,10 +929,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -927,13 +941,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -941,13 +955,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -955,13 +969,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -969,13 +983,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -983,13 +997,13 @@
         <v>7</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -997,10 +1011,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E10" s="4"/>
     </row>
@@ -1009,10 +1023,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E11" s="4"/>
     </row>
@@ -1021,67 +1035,81 @@
         <v>10</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="13">
+        <v>11</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="6">
+        <v>12</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="6">
+        <v>13</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="3">
+        <v>14</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="7" t="s">
+      <c r="E16" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>59</v>
+    </row>
+    <row r="17" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="6">
+        <v>15</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1101,18 +1129,18 @@
   <sheetData>
     <row r="2" spans="2:28" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AB2" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="2:28" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AB46" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1132,37 +1160,37 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/document/会员卡设计.xlsx
+++ b/document/会员卡设计.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SpringTest\workspace\wechatcard\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\我的文件\微信卡包\数据库\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
     <sheet name="功能说明" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">功能一览!$A$1:$F$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">功能一览!$A$1:$F$20</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,15 +66,6 @@
     <t>10</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>功能ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -238,6 +229,46 @@
   </si>
   <si>
     <t>4、“电子卡号”只用于显示；实际用时，需要用到“会员卡号”列的值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wec_0060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015/8/18完成a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015/8/18完成b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015/8/18完成c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015/8/18完成d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wec_0035</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡密码修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18号新增</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -245,7 +276,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,6 +305,15 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -329,7 +369,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -361,6 +401,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -830,7 +882,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E15"/>
+  <dimension ref="B2:E17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -849,27 +901,27 @@
         <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>16</v>
+      <c r="C3" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -877,10 +929,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -888,14 +940,14 @@
       <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>17</v>
+      <c r="C5" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -903,13 +955,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -917,48 +969,52 @@
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>18</v>
+      <c r="C8" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="9" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="10" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E10" s="4"/>
     </row>
@@ -967,10 +1023,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E11" s="4"/>
     </row>
@@ -979,48 +1035,82 @@
         <v>10</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="13">
+        <v>11</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="6">
+        <v>12</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="6">
+        <v>13</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="3">
+        <v>14</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="6">
+        <v>15</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1039,18 +1129,18 @@
   <sheetData>
     <row r="2" spans="2:28" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AB2" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="2:28" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AB46" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1070,37 +1160,37 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/document/会员卡设计.xlsx
+++ b/document/会员卡设计.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\我的文件\微信卡包\数据库\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SpringTest\workspace\wechatcard\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
     <sheet name="功能说明" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">功能一览!$A$1:$F$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">功能一览!$A$1:$F$21</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,125 +146,141 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>wec_0041</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员卡充值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员卡使用记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wec_0034</t>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wec_0031会员卡详细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wec_0030我的卡包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wec_0032会员卡充值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wec_0033</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wec_0033会员卡使用记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015/8/9完成</t>
+  </si>
+  <si>
+    <t>2015/8/9完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015/8/10完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、在申请新卡时，电子卡号为手机号，会员卡号为后台生成的实体卡号，在绑定旧卡时，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那在显示卡信息的时候，会员卡号为后台的实体卡号，电子卡号也为后台的这个实体卡号，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正面显示电子卡号这个字段，背面二维码的信息为会员卡号这个字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、微信端申请的电子卡就显示手机号，绑定的旧卡就显示实体卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、只能在线申请一张新卡（即电子卡号为手机号的卡，会员卡号为后台生成的实体卡号）；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再次进入时，“申请新卡”按钮变灰，不能再次申请，再次进入时，只能绑老卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、“电子卡号”只用于显示；实际用时，需要用到“会员卡号”列的值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wec_0060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015/8/18完成a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015/8/18完成b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015/8/18完成c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015/8/18完成d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wec_0035</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡密码修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠券列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>优惠券领取</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>wec_0041</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我要付款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会员卡充值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会员卡使用记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wec_0034</t>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wec_0031会员卡详细</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wec_0030我的卡包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wec_0032会员卡充值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wec_0033</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wec_0033会员卡使用记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015/8/9完成</t>
-  </si>
-  <si>
-    <t>2015/8/9完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015/8/10完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、在申请新卡时，电子卡号为手机号，会员卡号为后台生成的实体卡号，在绑定旧卡时，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>那在显示卡信息的时候，会员卡号为后台的实体卡号，电子卡号也为后台的这个实体卡号，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正面显示电子卡号这个字段，背面二维码的信息为会员卡号这个字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、微信端申请的电子卡就显示手机号，绑定的旧卡就显示实体卡号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3、只能在线申请一张新卡（即电子卡号为手机号的卡，会员卡号为后台生成的实体卡号）；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>再次进入时，“申请新卡”按钮变灰，不能再次申请，再次进入时，只能绑老卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4、“电子卡号”只用于显示；实际用时，需要用到“会员卡号”列的值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wec_0060</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015/8/18完成a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015/8/18完成b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015/8/18完成c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015/8/18完成d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wec_0035</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡密码修改</t>
+    <t>wec_0042</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠券领取完毕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18号新增</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -369,7 +385,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -413,6 +429,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -882,7 +904,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E17"/>
+  <dimension ref="B2:E18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -907,7 +929,7 @@
         <v>12</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -921,7 +943,7 @@
         <v>18</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -947,7 +969,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -961,7 +983,7 @@
         <v>21</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -975,7 +997,7 @@
         <v>23</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -989,7 +1011,7 @@
         <v>26</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -1003,7 +1025,7 @@
         <v>28</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -1014,7 +1036,7 @@
         <v>29</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" s="4"/>
     </row>
@@ -1023,10 +1045,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" s="4"/>
     </row>
@@ -1035,7 +1057,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>30</v>
@@ -1047,13 +1069,13 @@
         <v>11</v>
       </c>
       <c r="C13" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="14" t="s">
-        <v>61</v>
-      </c>
       <c r="E13" s="14" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -1064,10 +1086,10 @@
         <v>16</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -1075,41 +1097,55 @@
         <v>13</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="15">
+        <v>14</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="3">
+        <v>15</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="7" t="s">
+      <c r="E17" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="3">
-        <v>14</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="6">
-        <v>15</v>
-      </c>
-      <c r="C17" s="12" t="s">
+    <row r="18" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="6">
+        <v>16</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="E18" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1129,18 +1165,18 @@
   <sheetData>
     <row r="2" spans="2:28" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB2" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="AB2" s="8" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="46" spans="2:28" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB46" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1160,37 +1196,37 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/document/会员卡设计.xlsx
+++ b/document/会员卡设计.xlsx
@@ -17,7 +17,7 @@
     <sheet name="功能说明" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">功能一览!$A$1:$F$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">功能一览!$A$1:$G$21</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="84">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -285,6 +285,69 @@
   </si>
   <si>
     <t>18号新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/wec0010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/wec0011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/wec0020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/wec0021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/wec0022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/wec0030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/wec0031</t>
+  </si>
+  <si>
+    <t>/wec0032</t>
+  </si>
+  <si>
+    <t>/wec0033</t>
+  </si>
+  <si>
+    <t>/wec0034</t>
+  </si>
+  <si>
+    <t>/wec0035</t>
+  </si>
+  <si>
+    <t>/wec0040</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/wec0041</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/wec0042</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/wec0050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/wec0060</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -904,7 +967,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E18"/>
+  <dimension ref="B2:F18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -914,11 +977,12 @@
     <col min="2" max="2" width="6.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.625" customWidth="1"/>
     <col min="4" max="4" width="18.75" customWidth="1"/>
-    <col min="5" max="5" width="36.625" customWidth="1"/>
-    <col min="6" max="6" width="5.125" customWidth="1"/>
+    <col min="5" max="5" width="28.875" customWidth="1"/>
+    <col min="6" max="6" width="28.25" customWidth="1"/>
+    <col min="7" max="7" width="3.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
@@ -931,8 +995,11 @@
       <c r="E2" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F2" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -945,8 +1012,11 @@
       <c r="E3" s="9" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F3" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
@@ -957,8 +1027,11 @@
         <v>25</v>
       </c>
       <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F4" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
@@ -971,8 +1044,11 @@
       <c r="E5" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F5" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
@@ -985,8 +1061,11 @@
       <c r="E6" s="7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F6" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
@@ -999,8 +1078,11 @@
       <c r="E7" s="7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F7" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
@@ -1013,8 +1095,11 @@
       <c r="E8" s="4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F8" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
@@ -1027,8 +1112,11 @@
       <c r="E9" s="4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F9" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
@@ -1039,8 +1127,11 @@
         <v>33</v>
       </c>
       <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F10" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
@@ -1051,8 +1142,11 @@
         <v>34</v>
       </c>
       <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F11" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
@@ -1063,8 +1157,11 @@
         <v>30</v>
       </c>
       <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F12" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="13">
         <v>11</v>
       </c>
@@ -1077,8 +1174,11 @@
       <c r="E13" s="14" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F13" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="6">
         <v>12</v>
       </c>
@@ -1091,8 +1191,11 @@
       <c r="E14" s="7" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F14" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="6">
         <v>13</v>
       </c>
@@ -1105,8 +1208,11 @@
       <c r="E15" s="7" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="16" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F15" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="15">
         <v>14</v>
       </c>
@@ -1119,8 +1225,11 @@
       <c r="E16" s="16" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F16" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="3">
         <v>15</v>
       </c>
@@ -1133,8 +1242,11 @@
       <c r="E17" s="4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F17" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="6">
         <v>16</v>
       </c>
@@ -1146,12 +1258,15 @@
       </c>
       <c r="E18" s="7" t="s">
         <v>54</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="73" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/document/会员卡设计.xlsx
+++ b/document/会员卡设计.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SpringTest\workspace\wechatcard\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.USER-20150623BM\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -78,276 +78,276 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>wec_0050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员卡注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请会员卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wec_0021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请新卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wec_0022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定旧卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wec_0011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帐号已注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的卡包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wec_0031</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员卡详细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wec_0032</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠券详细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wec_0041</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员卡充值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员卡使用记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wec_0034</t>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wec_0031会员卡详细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wec_0030我的卡包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wec_0032会员卡充值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wec_0033</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wec_0033会员卡使用记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015/8/9完成</t>
+  </si>
+  <si>
+    <t>2015/8/9完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015/8/10完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、在申请新卡时，电子卡号为手机号，会员卡号为后台生成的实体卡号，在绑定旧卡时，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那在显示卡信息的时候，会员卡号为后台的实体卡号，电子卡号也为后台的这个实体卡号，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正面显示电子卡号这个字段，背面二维码的信息为会员卡号这个字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、微信端申请的电子卡就显示手机号，绑定的旧卡就显示实体卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、只能在线申请一张新卡（即电子卡号为手机号的卡，会员卡号为后台生成的实体卡号）；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再次进入时，“申请新卡”按钮变灰，不能再次申请，再次进入时，只能绑老卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、“电子卡号”只用于显示；实际用时，需要用到“会员卡号”列的值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wec_0060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015/8/18完成a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015/8/18完成b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015/8/18完成c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015/8/18完成d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wec_0035</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡密码修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠券列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠券领取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wec_0042</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠券领取完毕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18号新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18号新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/wec0010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/wec0011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/wec0020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/wec0021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/wec0022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/wec0030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/wec0031</t>
+  </si>
+  <si>
+    <t>/wec0032</t>
+  </si>
+  <si>
+    <t>/wec0033</t>
+  </si>
+  <si>
+    <t>/wec0034</t>
+  </si>
+  <si>
+    <t>/wec0035</t>
+  </si>
+  <si>
+    <t>/wec0040</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/wec0041</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/wec0042</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/wec0050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/wec0060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>wec_0020</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>wec_0040</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>wec_0030</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wec_0040</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wec_0050</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会员卡注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请会员卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wec_0021</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请新卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wec_0022</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绑定旧卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wec_0011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帐号已注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的卡包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wec_0031</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会员卡详细</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wec_0032</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优惠券详细</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wec_0041</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我要付款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会员卡充值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会员卡使用记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wec_0034</t>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wec_0031会员卡详细</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wec_0030我的卡包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wec_0032会员卡充值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wec_0033</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wec_0033会员卡使用记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015/8/9完成</t>
-  </si>
-  <si>
-    <t>2015/8/9完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015/8/10完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、在申请新卡时，电子卡号为手机号，会员卡号为后台生成的实体卡号，在绑定旧卡时，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>那在显示卡信息的时候，会员卡号为后台的实体卡号，电子卡号也为后台的这个实体卡号，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正面显示电子卡号这个字段，背面二维码的信息为会员卡号这个字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、微信端申请的电子卡就显示手机号，绑定的旧卡就显示实体卡号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3、只能在线申请一张新卡（即电子卡号为手机号的卡，会员卡号为后台生成的实体卡号）；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>再次进入时，“申请新卡”按钮变灰，不能再次申请，再次进入时，只能绑老卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4、“电子卡号”只用于显示；实际用时，需要用到“会员卡号”列的值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wec_0060</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015/8/18完成a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015/8/18完成b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015/8/18完成c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015/8/18完成d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wec_0035</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡密码修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优惠券列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优惠券领取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wec_0042</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优惠券领取完毕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18号新增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18号新增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/wec0010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/wec0011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/wec0020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/wec0021</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/wec0022</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/wec0030</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/wec0031</t>
-  </si>
-  <si>
-    <t>/wec0032</t>
-  </si>
-  <si>
-    <t>/wec0033</t>
-  </si>
-  <si>
-    <t>/wec0034</t>
-  </si>
-  <si>
-    <t>/wec0035</t>
-  </si>
-  <si>
-    <t>/wec0040</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/wec0041</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/wec0042</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/wec0050</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/wec0060</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -355,7 +355,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -390,9 +390,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -448,7 +455,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -476,16 +483,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -494,10 +498,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -993,27 +1018,27 @@
         <v>12</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>68</v>
+      <c r="D3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -1021,31 +1046,31 @@
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>70</v>
+      <c r="C5" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -1053,16 +1078,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -1070,33 +1095,33 @@
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>15</v>
+      <c r="C8" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -1104,16 +1129,16 @@
         <v>7</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -1121,14 +1146,14 @@
         <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -1136,14 +1161,14 @@
         <v>9</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -1151,48 +1176,48 @@
         <v>10</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="13">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="12">
         <v>11</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="6">
+      <c r="C13" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="20">
         <v>12</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>79</v>
+      <c r="C14" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -1200,67 +1225,67 @@
         <v>13</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F15" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="16">
+        <v>14</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="19">
+        <v>15</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="20">
+        <v>16</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="10" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="15">
-        <v>14</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="3">
-        <v>15</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="6">
-        <v>16</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1280,18 +1305,18 @@
   <sheetData>
     <row r="2" spans="2:28" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AB2" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="2:28" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AB46" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1311,37 +1336,37 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/document/会员卡设计.xlsx
+++ b/document/会员卡设计.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SpringTest\workspace\wechatcard\document\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="18900" windowHeight="8970"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18900" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="功能一览" sheetId="1" r:id="rId1"/>
@@ -12,14 +17,14 @@
     <sheet name="功能说明" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">功能一览!$A$1:$G$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">功能一览!$A$1:$G$22</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="89">
   <si>
     <t>序号</t>
   </si>
@@ -78,206 +83,232 @@
     <t>04</t>
   </si>
   <si>
+    <t>申请新卡</t>
+  </si>
+  <si>
+    <t>2015/8/10完成</t>
+  </si>
+  <si>
+    <t>/wec0021</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>wec_0022</t>
+  </si>
+  <si>
+    <t>绑定旧卡</t>
+  </si>
+  <si>
+    <t>/wec0022</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>wec_0030</t>
+  </si>
+  <si>
+    <t>我的卡包</t>
+  </si>
+  <si>
+    <t>已完成</t>
+  </si>
+  <si>
+    <t>/wec0030</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>会员卡详细</t>
+  </si>
+  <si>
+    <t>/wec0031</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>wec_0032</t>
+  </si>
+  <si>
+    <t>会员卡充值</t>
+  </si>
+  <si>
+    <t>/wec0032</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>wec_0033</t>
+  </si>
+  <si>
+    <t>会员卡使用记录</t>
+  </si>
+  <si>
+    <t>/wec0033</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>wec_0034</t>
+  </si>
+  <si>
+    <t>优惠券详细</t>
+  </si>
+  <si>
+    <t>/wec0034</t>
+  </si>
+  <si>
+    <t>wec_0035</t>
+  </si>
+  <si>
+    <t>卡密码修改</t>
+  </si>
+  <si>
+    <t>18号新增</t>
+  </si>
+  <si>
+    <t>/wec0035</t>
+  </si>
+  <si>
+    <t>2015/8/18完成b</t>
+  </si>
+  <si>
+    <t>/wec0040</t>
+  </si>
+  <si>
+    <t>wec_0041</t>
+  </si>
+  <si>
+    <t>优惠券领取</t>
+  </si>
+  <si>
+    <t>2015/8/18完成c</t>
+  </si>
+  <si>
+    <t>/wec0041</t>
+  </si>
+  <si>
+    <t>wec_0042</t>
+  </si>
+  <si>
+    <t>优惠券领取完毕</t>
+  </si>
+  <si>
+    <t>/wec0042</t>
+  </si>
+  <si>
+    <t>wec_0050</t>
+  </si>
+  <si>
+    <t>我要付款</t>
+  </si>
+  <si>
+    <t>2015/8/18完成d</t>
+  </si>
+  <si>
+    <t>/wec0050</t>
+  </si>
+  <si>
+    <t>wec_0060</t>
+  </si>
+  <si>
+    <t>修改手机号</t>
+  </si>
+  <si>
+    <t>2015/8/18完成a</t>
+  </si>
+  <si>
+    <t>/wec0060</t>
+  </si>
+  <si>
+    <t>wec_0031会员卡详细</t>
+  </si>
+  <si>
+    <t>wec_0030我的卡包</t>
+  </si>
+  <si>
+    <t>wec_0032会员卡充值</t>
+  </si>
+  <si>
+    <t>wec_0033会员卡使用记录</t>
+  </si>
+  <si>
+    <t>1、在申请新卡时，电子卡号为手机号，会员卡号为后台生成的实体卡号，在绑定旧卡时，</t>
+  </si>
+  <si>
+    <t>那在显示卡信息的时候，会员卡号为后台的实体卡号，电子卡号也为后台的这个实体卡号，</t>
+  </si>
+  <si>
+    <t>正面显示电子卡号这个字段，背面二维码的信息为会员卡号这个字段</t>
+  </si>
+  <si>
+    <t>2、微信端申请的电子卡就显示手机号，绑定的旧卡就显示实体卡号</t>
+  </si>
+  <si>
+    <t>3、只能在线申请一张新卡（即电子卡号为手机号的卡，会员卡号为后台生成的实体卡号）；</t>
+  </si>
+  <si>
+    <t>再次进入时，“申请新卡”按钮变灰，不能再次申请，再次进入时，只能绑老卡</t>
+  </si>
+  <si>
+    <t>4、“电子卡号”只用于显示；实际用时，需要用到“会员卡号”列的值</t>
+  </si>
+  <si>
+    <t>wec_0040</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的优惠券列表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>wec_0044</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠券列表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/wec0043</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>wec_0061</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/wec0061</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>已增加</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>未注册提示页面</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>wec_0021</t>
-  </si>
-  <si>
-    <t>申请新卡</t>
-  </si>
-  <si>
-    <t>2015/8/10完成</t>
-  </si>
-  <si>
-    <t>/wec0021</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>wec_0022</t>
-  </si>
-  <si>
-    <t>绑定旧卡</t>
-  </si>
-  <si>
-    <t>/wec0022</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>wec_0030</t>
-  </si>
-  <si>
-    <t>我的卡包</t>
-  </si>
-  <si>
-    <t>已完成</t>
-  </si>
-  <si>
-    <t>/wec0030</t>
-  </si>
-  <si>
-    <t>07</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>wec_0031</t>
-  </si>
-  <si>
-    <t>会员卡详细</t>
-  </si>
-  <si>
-    <t>/wec0031</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>wec_0032</t>
-  </si>
-  <si>
-    <t>会员卡充值</t>
-  </si>
-  <si>
-    <t>/wec0032</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>wec_0033</t>
-  </si>
-  <si>
-    <t>会员卡使用记录</t>
-  </si>
-  <si>
-    <t>/wec0033</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>wec_0034</t>
-  </si>
-  <si>
-    <t>优惠券详细</t>
-  </si>
-  <si>
-    <t>/wec0034</t>
-  </si>
-  <si>
-    <t>wec_0035</t>
-  </si>
-  <si>
-    <t>卡密码修改</t>
-  </si>
-  <si>
-    <t>18号新增</t>
-  </si>
-  <si>
-    <t>/wec0035</t>
-  </si>
-  <si>
-    <t>wec_0040</t>
-  </si>
-  <si>
-    <t>优惠券列表</t>
-  </si>
-  <si>
-    <t>2015/8/18完成b</t>
-  </si>
-  <si>
-    <t>/wec0040</t>
-  </si>
-  <si>
-    <t>wec_0041</t>
-  </si>
-  <si>
-    <t>优惠券领取</t>
-  </si>
-  <si>
-    <t>2015/8/18完成c</t>
-  </si>
-  <si>
-    <t>/wec0041</t>
-  </si>
-  <si>
-    <t>wec_0042</t>
-  </si>
-  <si>
-    <t>优惠券领取完毕</t>
-  </si>
-  <si>
-    <t>/wec0042</t>
-  </si>
-  <si>
-    <t>wec_0050</t>
-  </si>
-  <si>
-    <t>我要付款</t>
-  </si>
-  <si>
-    <t>2015/8/18完成d</t>
-  </si>
-  <si>
-    <t>/wec0050</t>
-  </si>
-  <si>
-    <t>wec_0060</t>
-  </si>
-  <si>
-    <t>修改手机号</t>
-  </si>
-  <si>
-    <t>2015/8/18完成a</t>
-  </si>
-  <si>
-    <t>/wec0060</t>
-  </si>
-  <si>
-    <t>wec_0031会员卡详细</t>
-  </si>
-  <si>
-    <t>wec_0030我的卡包</t>
-  </si>
-  <si>
-    <t>wec_0032会员卡充值</t>
-  </si>
-  <si>
-    <t>wec_0033会员卡使用记录</t>
-  </si>
-  <si>
-    <t>1、在申请新卡时，电子卡号为手机号，会员卡号为后台生成的实体卡号，在绑定旧卡时，</t>
-  </si>
-  <si>
-    <t>那在显示卡信息的时候，会员卡号为后台的实体卡号，电子卡号也为后台的这个实体卡号，</t>
-  </si>
-  <si>
-    <t>正面显示电子卡号这个字段，背面二维码的信息为会员卡号这个字段</t>
-  </si>
-  <si>
-    <t>2、微信端申请的电子卡就显示手机号，绑定的旧卡就显示实体卡号</t>
-  </si>
-  <si>
-    <t>3、只能在线申请一张新卡（即电子卡号为手机号的卡，会员卡号为后台生成的实体卡号）；</t>
-  </si>
-  <si>
-    <t>再次进入时，“申请新卡”按钮变灰，不能再次申请，再次进入时，只能绑老卡</t>
-  </si>
-  <si>
-    <t>4、“电子卡号”只用于显示；实际用时，需要用到“会员卡号”列的值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -289,6 +320,7 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -296,23 +328,34 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -360,27 +403,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -411,9 +439,6 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -450,32 +475,322 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2049" name="图片 1" descr="rId1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="228600" y="447675"/>
+          <a:ext cx="4276725" cy="6705600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2050" name="图片 2" descr="rId2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="219075" y="8039100"/>
+          <a:ext cx="3933825" cy="6991350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2051" name="图片 3" descr="rId3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5172075" y="8058150"/>
+          <a:ext cx="3924300" cy="6991350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2052" name="图片 4" descr="rId4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5172075" y="428625"/>
+          <a:ext cx="3924300" cy="6981825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -773,6 +1088,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -805,15 +1121,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="B2:F18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
     <col min="2" max="2" width="6.375" style="5" customWidth="1"/>
@@ -824,7 +1137,7 @@
     <col min="7" max="7" width="3.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" s="2" customFormat="1" ht="18.75" customHeight="1" spans="2:6">
+    <row r="2" spans="2:6" s="2" customFormat="1" ht="18.75" customHeight="1">
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
@@ -841,8 +1154,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" customHeight="1" spans="2:6">
-      <c r="B3" s="23" t="s">
+    <row r="3" spans="2:6" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="B3" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -858,343 +1171,368 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="2:6">
-      <c r="B4" s="24" t="s">
+    <row r="4" spans="2:6" ht="15" customHeight="1">
+      <c r="B4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11" t="s">
+      <c r="E4" s="10"/>
+      <c r="F4" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" customHeight="1" spans="2:6">
-      <c r="B5" s="25" t="s">
+    <row r="5" spans="2:6" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="B5" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="2:6">
-      <c r="B6" s="26" t="s">
+    <row r="6" spans="2:6" ht="15" customHeight="1">
+      <c r="B6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="E6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="F6" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="16" t="s">
+    </row>
+    <row r="7" spans="2:6" ht="15" customHeight="1">
+      <c r="B7" s="25" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" customHeight="1" spans="2:6">
-      <c r="B7" s="26" t="s">
+      <c r="C7" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="D7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="E7" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="16" t="s">
+    </row>
+    <row r="8" spans="2:6" ht="15" customHeight="1">
+      <c r="B8" s="23" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" customHeight="1" spans="2:6">
-      <c r="B8" s="24" t="s">
+      <c r="C8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="11" t="s">
+    </row>
+    <row r="9" spans="2:6" ht="15" customHeight="1">
+      <c r="B9" s="23" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" customHeight="1" spans="2:6">
-      <c r="B9" s="24" t="s">
+      <c r="C9" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="E9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="11" t="s">
+    </row>
+    <row r="10" spans="2:6" ht="15" customHeight="1">
+      <c r="B10" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" customHeight="1" spans="2:6">
-      <c r="B10" s="24" t="s">
+      <c r="D10" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="E10" s="10"/>
+      <c r="F10" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="11" t="s">
+    </row>
+    <row r="11" spans="2:6" ht="15" customHeight="1">
+      <c r="B11" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" customHeight="1" spans="2:6">
-      <c r="B11" s="24" t="s">
+      <c r="D11" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="E11" s="10"/>
+      <c r="F11" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="11" t="s">
+    </row>
+    <row r="12" spans="2:6" ht="15" customHeight="1">
+      <c r="B12" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="12" customHeight="1" spans="2:6">
-      <c r="B12" s="24" t="s">
+      <c r="D12" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="E12" s="10"/>
+      <c r="F12" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="11" t="s">
+    </row>
+    <row r="13" spans="2:6" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B13" s="16">
+        <v>11</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11" t="s">
+      <c r="D13" s="17" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="13" s="4" customFormat="1" customHeight="1" spans="2:6">
-      <c r="B13" s="17">
-        <v>11</v>
-      </c>
-      <c r="C13" s="18" t="s">
+      <c r="E13" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="F13" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="18" t="s">
+    </row>
+    <row r="14" spans="2:6" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B14" s="26">
+        <v>12</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F14" s="21" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" s="3" customFormat="1" customHeight="1" spans="2:6">
-      <c r="B14" s="12">
-        <v>12</v>
-      </c>
-      <c r="C14" s="13" t="s">
+    <row r="15" spans="2:6" ht="15" customHeight="1">
+      <c r="B15" s="14">
+        <v>13</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D15" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E15" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F15" s="15" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="2:6">
-      <c r="B15" s="15">
-        <v>13</v>
-      </c>
-      <c r="C15" s="16" t="s">
+    <row r="16" spans="2:6" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B16" s="19">
+        <v>14</v>
+      </c>
+      <c r="C16" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D16" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E16" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="16" t="s">
+    </row>
+    <row r="17" spans="2:6" s="29" customFormat="1" ht="15" customHeight="1">
+      <c r="B17" s="27">
+        <v>15</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="B18" s="7">
+        <v>16</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="16" s="4" customFormat="1" customHeight="1" spans="2:6">
-      <c r="B16" s="20">
-        <v>14</v>
-      </c>
-      <c r="C16" s="21" t="s">
+      <c r="D18" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="E18" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="22" t="s">
+      <c r="F18" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" s="3" customFormat="1" customHeight="1" spans="2:6">
-      <c r="B17" s="7">
-        <v>15</v>
-      </c>
-      <c r="C17" s="8" t="s">
+    <row r="19" spans="2:6" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="B19" s="11">
+        <v>17</v>
+      </c>
+      <c r="C19" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D19" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E19" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F19" s="12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="18" s="3" customFormat="1" customHeight="1" spans="2:6">
-      <c r="B18" s="12">
-        <v>16</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>70</v>
+    <row r="20" spans="2:6" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B20" s="26">
+        <v>18</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="73" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="73" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AB46"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" s="1" customFormat="1" ht="18" customHeight="1" spans="2:28">
+    <row r="2" spans="2:28" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="B2" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="46" s="1" customFormat="1" ht="19.5" customHeight="1" spans="2:28">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" s="1" customFormat="1" ht="19.5" customHeight="1">
       <c r="B46" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AB46" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:3">
       <c r="B2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="C4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="3:3">
-      <c r="C3" t="s">
+    <row r="9" spans="2:3">
+      <c r="C9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="3:3">
-      <c r="C4" t="s">
+    <row r="11" spans="2:3">
+      <c r="B11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
-      <c r="B6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="3:3">
-      <c r="C9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" t="s">
-        <v>81</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/document/会员卡设计.xlsx
+++ b/document/会员卡设计.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SpringTest\workspace\wechatcard\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.USER-20150623BM\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -107,9 +107,6 @@
     <t>06</t>
   </si>
   <si>
-    <t>wec_0030</t>
-  </si>
-  <si>
     <t>我的卡包</t>
   </si>
   <si>
@@ -268,10 +265,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>wec_0044</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>优惠券列表</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -280,27 +273,35 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>/wec0061</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>已增加</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>未注册提示页面</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>wec_0021</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>wec_0031</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>wec_0043</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>wec_0061</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>/wec0061</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>已增加</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>未注册提示页面</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>wec_0021</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>wec_0031</t>
+    <t>wec_0030</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1208,7 +1209,7 @@
         <v>18</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>19</v>
@@ -1242,78 +1243,78 @@
         <v>26</v>
       </c>
       <c r="C8" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="E8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="F8" s="10" t="s">
         <v>29</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="15" customHeight="1">
       <c r="B9" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" s="10" t="s">
+      <c r="E9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="15" customHeight="1">
       <c r="B10" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="D10" s="10" t="s">
         <v>35</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>36</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="15" customHeight="1">
       <c r="B11" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="D11" s="10" t="s">
         <v>39</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>40</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="15" customHeight="1">
       <c r="B12" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="D12" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="2:6" s="4" customFormat="1" ht="15" customHeight="1">
@@ -1321,16 +1322,16 @@
         <v>11</v>
       </c>
       <c r="C13" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="E13" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="F13" s="18" t="s">
         <v>48</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="14" spans="2:6" s="4" customFormat="1" ht="15" customHeight="1">
@@ -1338,16 +1339,16 @@
         <v>12</v>
       </c>
       <c r="C14" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="21" t="s">
-        <v>79</v>
-      </c>
       <c r="E14" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="21" t="s">
         <v>50</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="15" customHeight="1">
@@ -1355,16 +1356,16 @@
         <v>13</v>
       </c>
       <c r="C15" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="E15" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="F15" s="15" t="s">
         <v>54</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="16" spans="2:6" s="4" customFormat="1" ht="15" customHeight="1">
@@ -1372,16 +1373,16 @@
         <v>14</v>
       </c>
       <c r="C16" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="E16" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="21" t="s">
         <v>57</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="17" spans="2:6" s="29" customFormat="1" ht="15" customHeight="1">
@@ -1389,14 +1390,14 @@
         <v>15</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E17" s="28"/>
       <c r="F17" s="28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="2:6" s="3" customFormat="1" ht="15" customHeight="1">
@@ -1404,16 +1405,16 @@
         <v>16</v>
       </c>
       <c r="C18" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="E18" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="F18" s="8" t="s">
         <v>61</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="19" spans="2:6" s="3" customFormat="1" ht="15" customHeight="1">
@@ -1421,16 +1422,16 @@
         <v>17</v>
       </c>
       <c r="C19" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="E19" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="F19" s="12" t="s">
         <v>65</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="20" spans="2:6" s="4" customFormat="1" ht="15" customHeight="1">
@@ -1438,16 +1439,16 @@
         <v>18</v>
       </c>
       <c r="C20" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="D20" s="21" t="s">
-        <v>86</v>
-      </c>
       <c r="E20" s="21" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1467,18 +1468,18 @@
   <sheetData>
     <row r="2" spans="2:28" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="B2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB2" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="46" spans="2:28" s="1" customFormat="1" ht="19.5" customHeight="1">
       <c r="B46" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB46" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="AB46" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1498,37 +1499,37 @@
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="C3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="C4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="C9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/document/会员卡设计.xlsx
+++ b/document/会员卡设计.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.USER-20150623BM\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SpringTest\workspace\wechatcard\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,14 +17,14 @@
     <sheet name="功能说明" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">功能一览!$A$1:$G$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">功能一览!$A$1:$G$23</definedName>
   </definedNames>
   <calcPr calcId="152511" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="92">
   <si>
     <t>序号</t>
   </si>
@@ -128,188 +128,205 @@
     <t>08</t>
   </si>
   <si>
+    <t>/wec0032</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>/wec0033</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>优惠券详细</t>
+  </si>
+  <si>
+    <t>/wec0034</t>
+  </si>
+  <si>
+    <t>wec_0035</t>
+  </si>
+  <si>
+    <t>卡密码修改</t>
+  </si>
+  <si>
+    <t>18号新增</t>
+  </si>
+  <si>
+    <t>/wec0035</t>
+  </si>
+  <si>
+    <t>2015/8/18完成b</t>
+  </si>
+  <si>
+    <t>/wec0040</t>
+  </si>
+  <si>
+    <t>wec_0041</t>
+  </si>
+  <si>
+    <t>优惠券领取</t>
+  </si>
+  <si>
+    <t>2015/8/18完成c</t>
+  </si>
+  <si>
+    <t>/wec0041</t>
+  </si>
+  <si>
+    <t>wec_0042</t>
+  </si>
+  <si>
+    <t>优惠券领取完毕</t>
+  </si>
+  <si>
+    <t>/wec0042</t>
+  </si>
+  <si>
+    <t>wec_0050</t>
+  </si>
+  <si>
+    <t>我要付款</t>
+  </si>
+  <si>
+    <t>2015/8/18完成d</t>
+  </si>
+  <si>
+    <t>/wec0050</t>
+  </si>
+  <si>
+    <t>wec_0060</t>
+  </si>
+  <si>
+    <t>修改手机号</t>
+  </si>
+  <si>
+    <t>2015/8/18完成a</t>
+  </si>
+  <si>
+    <t>/wec0060</t>
+  </si>
+  <si>
+    <t>wec_0031会员卡详细</t>
+  </si>
+  <si>
+    <t>wec_0030我的卡包</t>
+  </si>
+  <si>
+    <t>wec_0032会员卡充值</t>
+  </si>
+  <si>
+    <t>wec_0033会员卡使用记录</t>
+  </si>
+  <si>
+    <t>1、在申请新卡时，电子卡号为手机号，会员卡号为后台生成的实体卡号，在绑定旧卡时，</t>
+  </si>
+  <si>
+    <t>那在显示卡信息的时候，会员卡号为后台的实体卡号，电子卡号也为后台的这个实体卡号，</t>
+  </si>
+  <si>
+    <t>正面显示电子卡号这个字段，背面二维码的信息为会员卡号这个字段</t>
+  </si>
+  <si>
+    <t>2、微信端申请的电子卡就显示手机号，绑定的旧卡就显示实体卡号</t>
+  </si>
+  <si>
+    <t>3、只能在线申请一张新卡（即电子卡号为手机号的卡，会员卡号为后台生成的实体卡号）；</t>
+  </si>
+  <si>
+    <t>再次进入时，“申请新卡”按钮变灰，不能再次申请，再次进入时，只能绑老卡</t>
+  </si>
+  <si>
+    <t>4、“电子卡号”只用于显示；实际用时，需要用到“会员卡号”列的值</t>
+  </si>
+  <si>
+    <t>wec_0040</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的优惠券列表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠券列表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/wec0043</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/wec0061</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>已增加</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>未注册提示页面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>wec_0021</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>wec_0031</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>wec_0043</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>wec_0061</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>wec_0030</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>wec_0033</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>wec_0032</t>
-  </si>
-  <si>
-    <t>会员卡充值</t>
-  </si>
-  <si>
-    <t>/wec0032</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>wec_0033</t>
-  </si>
-  <si>
-    <t>会员卡使用记录</t>
-  </si>
-  <si>
-    <t>/wec0033</t>
-  </si>
-  <si>
-    <t>10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要充值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>wec_0034</t>
-  </si>
-  <si>
-    <t>优惠券详细</t>
-  </si>
-  <si>
-    <t>/wec0034</t>
-  </si>
-  <si>
-    <t>wec_0035</t>
-  </si>
-  <si>
-    <t>卡密码修改</t>
-  </si>
-  <si>
-    <t>18号新增</t>
-  </si>
-  <si>
-    <t>/wec0035</t>
-  </si>
-  <si>
-    <t>2015/8/18完成b</t>
-  </si>
-  <si>
-    <t>/wec0040</t>
-  </si>
-  <si>
-    <t>wec_0041</t>
-  </si>
-  <si>
-    <t>优惠券领取</t>
-  </si>
-  <si>
-    <t>2015/8/18完成c</t>
-  </si>
-  <si>
-    <t>/wec0041</t>
-  </si>
-  <si>
-    <t>wec_0042</t>
-  </si>
-  <si>
-    <t>优惠券领取完毕</t>
-  </si>
-  <si>
-    <t>/wec0042</t>
-  </si>
-  <si>
-    <t>wec_0050</t>
-  </si>
-  <si>
-    <t>我要付款</t>
-  </si>
-  <si>
-    <t>2015/8/18完成d</t>
-  </si>
-  <si>
-    <t>/wec0050</t>
-  </si>
-  <si>
-    <t>wec_0060</t>
-  </si>
-  <si>
-    <t>修改手机号</t>
-  </si>
-  <si>
-    <t>2015/8/18完成a</t>
-  </si>
-  <si>
-    <t>/wec0060</t>
-  </si>
-  <si>
-    <t>wec_0031会员卡详细</t>
-  </si>
-  <si>
-    <t>wec_0030我的卡包</t>
-  </si>
-  <si>
-    <t>wec_0032会员卡充值</t>
-  </si>
-  <si>
-    <t>wec_0033会员卡使用记录</t>
-  </si>
-  <si>
-    <t>1、在申请新卡时，电子卡号为手机号，会员卡号为后台生成的实体卡号，在绑定旧卡时，</t>
-  </si>
-  <si>
-    <t>那在显示卡信息的时候，会员卡号为后台的实体卡号，电子卡号也为后台的这个实体卡号，</t>
-  </si>
-  <si>
-    <t>正面显示电子卡号这个字段，背面二维码的信息为会员卡号这个字段</t>
-  </si>
-  <si>
-    <t>2、微信端申请的电子卡就显示手机号，绑定的旧卡就显示实体卡号</t>
-  </si>
-  <si>
-    <t>3、只能在线申请一张新卡（即电子卡号为手机号的卡，会员卡号为后台生成的实体卡号）；</t>
-  </si>
-  <si>
-    <t>再次进入时，“申请新卡”按钮变灰，不能再次申请，再次进入时，只能绑老卡</t>
-  </si>
-  <si>
-    <t>4、“电子卡号”只用于显示；实际用时，需要用到“会员卡号”列的值</t>
-  </si>
-  <si>
-    <t>wec_0040</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的优惠券列表</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>优惠券列表</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>/wec0043</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>/wec0061</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>已增加</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>未注册提示页面</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>wec_0021</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>wec_0031</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>wec_0043</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>wec_0061</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>wec_0030</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值记录</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>wec_0036</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费记录</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/wec0036</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -340,13 +357,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -355,6 +365,20 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -409,7 +433,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -452,25 +476,10 @@
     <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -491,14 +500,35 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1123,7 +1153,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F20"/>
+  <dimension ref="B2:F21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -1156,7 +1186,7 @@
       </c>
     </row>
     <row r="3" spans="2:6" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="17" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -1173,7 +1203,7 @@
       </c>
     </row>
     <row r="4" spans="2:6" ht="15" customHeight="1">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="18" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="10" t="s">
@@ -1188,7 +1218,7 @@
       </c>
     </row>
     <row r="5" spans="2:6" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="19" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="12" t="s">
@@ -1205,45 +1235,45 @@
       </c>
     </row>
     <row r="6" spans="2:6" ht="15" customHeight="1">
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="15" t="s">
+      <c r="C6" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="15" customHeight="1">
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="15" customHeight="1">
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="18" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>27</v>
@@ -1256,11 +1286,11 @@
       </c>
     </row>
     <row r="9" spans="2:6" ht="15" customHeight="1">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>85</v>
+      <c r="C9" s="15" t="s">
+        <v>80</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>31</v>
@@ -1273,186 +1303,201 @@
       </c>
     </row>
     <row r="10" spans="2:6" ht="15" customHeight="1">
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="10" t="s">
+    </row>
+    <row r="11" spans="2:6" ht="15" customHeight="1">
+      <c r="B11" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10" t="s">
+      <c r="C11" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="15" customHeight="1">
-      <c r="B11" s="23" t="s">
+    <row r="12" spans="2:6" ht="15" customHeight="1">
+      <c r="B12" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C12" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>38</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="15" customHeight="1">
-      <c r="B12" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>43</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" s="27" customFormat="1" ht="15" customHeight="1">
+      <c r="B13" s="25">
+        <v>11</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" s="27" customFormat="1" ht="15" customHeight="1">
+      <c r="B14" s="31">
+        <v>12</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B15" s="21">
+        <v>13</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="16" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" s="4" customFormat="1" ht="15" customHeight="1">
-      <c r="B13" s="16">
-        <v>11</v>
-      </c>
-      <c r="C13" s="17" t="s">
+      <c r="F15" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="17" t="s">
+    </row>
+    <row r="16" spans="2:6" ht="15" customHeight="1">
+      <c r="B16" s="21">
+        <v>14</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="D16" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="E16" s="14" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" s="4" customFormat="1" ht="15" customHeight="1">
-      <c r="B14" s="26">
-        <v>12</v>
-      </c>
-      <c r="C14" s="21" t="s">
+      <c r="F16" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" s="27" customFormat="1" ht="15" customHeight="1">
+      <c r="B17" s="21">
+        <v>15</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" s="24" customFormat="1" ht="15" customHeight="1">
+      <c r="B18" s="22">
+        <v>16</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="B19" s="7">
+        <v>17</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="B20" s="11">
+        <v>18</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B21" s="21">
+        <v>19</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="15" customHeight="1">
-      <c r="B15" s="14">
-        <v>13</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" s="4" customFormat="1" ht="15" customHeight="1">
-      <c r="B16" s="19">
-        <v>14</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" s="29" customFormat="1" ht="15" customHeight="1">
-      <c r="B17" s="27">
-        <v>15</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="B18" s="7">
-        <v>16</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="B19" s="11">
-        <v>17</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" s="4" customFormat="1" ht="15" customHeight="1">
-      <c r="B20" s="26">
-        <v>18</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>81</v>
+      <c r="F21" s="16" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="73" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1468,22 +1513,22 @@
   <sheetData>
     <row r="2" spans="2:28" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="B2" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="2:28" s="1" customFormat="1" ht="19.5" customHeight="1">
       <c r="B46" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="AB46" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1499,41 +1544,41 @@
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="C3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="C4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="C9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/document/会员卡设计.xlsx
+++ b/document/会员卡设计.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\test\02_代码\wechatcard\document\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="15060" windowHeight="8970"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15060" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="功能一览" sheetId="1" r:id="rId1"/>
@@ -12,14 +17,14 @@
     <sheet name="功能说明" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">功能一览!$A$1:$G$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">功能一览!$A$1:$G$25</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="98">
   <si>
     <t>序号</t>
   </si>
@@ -147,167 +152,187 @@
     <t>wec_0033</t>
   </si>
   <si>
+    <t>/wec0033</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>wec_0034</t>
+  </si>
+  <si>
+    <t>优惠券详细</t>
+  </si>
+  <si>
+    <t>/wec0034</t>
+  </si>
+  <si>
+    <t>wec_0035</t>
+  </si>
+  <si>
+    <t>卡密码修改</t>
+  </si>
+  <si>
+    <t>18号新增</t>
+  </si>
+  <si>
+    <t>/wec0035</t>
+  </si>
+  <si>
+    <t>wec_0036</t>
+  </si>
+  <si>
+    <t>充值记录</t>
+  </si>
+  <si>
+    <t>wec_0040</t>
+  </si>
+  <si>
+    <t>我的优惠券列表</t>
+  </si>
+  <si>
+    <t>2015/8/18完成b</t>
+  </si>
+  <si>
+    <t>/wec0040</t>
+  </si>
+  <si>
+    <t>wec_0041</t>
+  </si>
+  <si>
+    <t>优惠券领取</t>
+  </si>
+  <si>
+    <t>2015/8/18完成c</t>
+  </si>
+  <si>
+    <t>/wec0041</t>
+  </si>
+  <si>
+    <t>wec_0042</t>
+  </si>
+  <si>
+    <t>优惠券领取完毕</t>
+  </si>
+  <si>
+    <t>/wec0042</t>
+  </si>
+  <si>
+    <t>wec_0043</t>
+  </si>
+  <si>
+    <t>优惠券列表</t>
+  </si>
+  <si>
+    <t>/wec0043</t>
+  </si>
+  <si>
+    <t>wec_0050</t>
+  </si>
+  <si>
+    <t>我要付款</t>
+  </si>
+  <si>
+    <t>2015/8/18完成d</t>
+  </si>
+  <si>
+    <t>/wec0050</t>
+  </si>
+  <si>
+    <t>wec_0060</t>
+  </si>
+  <si>
+    <t>修改手机号</t>
+  </si>
+  <si>
+    <t>2015/8/18完成a</t>
+  </si>
+  <si>
+    <t>/wec0060</t>
+  </si>
+  <si>
+    <t>wec_0061</t>
+  </si>
+  <si>
+    <t>未注册提示页面</t>
+  </si>
+  <si>
+    <t>已增加</t>
+  </si>
+  <si>
+    <t>/wec0061</t>
+  </si>
+  <si>
+    <t>wec_0031会员卡详细</t>
+  </si>
+  <si>
+    <t>wec_0030我的卡包</t>
+  </si>
+  <si>
+    <t>wec_0032会员卡充值</t>
+  </si>
+  <si>
+    <t>wec_0033会员卡使用记录</t>
+  </si>
+  <si>
+    <t>1、在申请新卡时，电子卡号为手机号，会员卡号为后台生成的实体卡号，在绑定旧卡时，</t>
+  </si>
+  <si>
+    <t>那在显示卡信息的时候，会员卡号为后台的实体卡号，电子卡号也为后台的这个实体卡号，</t>
+  </si>
+  <si>
+    <t>正面显示电子卡号这个字段，背面二维码的信息为会员卡号这个字段</t>
+  </si>
+  <si>
+    <t>2、微信端申请的电子卡就显示手机号，绑定的旧卡就显示实体卡号</t>
+  </si>
+  <si>
+    <t>3、只能在线申请一张新卡（即电子卡号为手机号的卡，会员卡号为后台生成的实体卡号）；</t>
+  </si>
+  <si>
+    <t>再次进入时，“申请新卡”按钮变灰，不能再次申请，再次进入时，只能绑老卡</t>
+  </si>
+  <si>
+    <t>4、“电子卡号”只用于显示；实际用时，需要用到“会员卡号”列的值</t>
+  </si>
+  <si>
+    <t>wec_0037</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>wec_0038</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>消费记录</t>
-  </si>
-  <si>
-    <t>/wec0033</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>wec_0034</t>
-  </si>
-  <si>
-    <t>优惠券详细</t>
-  </si>
-  <si>
-    <t>/wec0034</t>
-  </si>
-  <si>
-    <t>wec_0035</t>
-  </si>
-  <si>
-    <t>卡密码修改</t>
-  </si>
-  <si>
-    <t>18号新增</t>
-  </si>
-  <si>
-    <t>/wec0035</t>
-  </si>
-  <si>
-    <t>wec_0036</t>
-  </si>
-  <si>
-    <t>充值记录</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费记录查询</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值记录查询</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>/wec0036</t>
-  </si>
-  <si>
-    <t>wec_0040</t>
-  </si>
-  <si>
-    <t>我的优惠券列表</t>
-  </si>
-  <si>
-    <t>2015/8/18完成b</t>
-  </si>
-  <si>
-    <t>/wec0040</t>
-  </si>
-  <si>
-    <t>wec_0041</t>
-  </si>
-  <si>
-    <t>优惠券领取</t>
-  </si>
-  <si>
-    <t>2015/8/18完成c</t>
-  </si>
-  <si>
-    <t>/wec0041</t>
-  </si>
-  <si>
-    <t>wec_0042</t>
-  </si>
-  <si>
-    <t>优惠券领取完毕</t>
-  </si>
-  <si>
-    <t>/wec0042</t>
-  </si>
-  <si>
-    <t>wec_0043</t>
-  </si>
-  <si>
-    <t>优惠券列表</t>
-  </si>
-  <si>
-    <t>/wec0043</t>
-  </si>
-  <si>
-    <t>wec_0050</t>
-  </si>
-  <si>
-    <t>我要付款</t>
-  </si>
-  <si>
-    <t>2015/8/18完成d</t>
-  </si>
-  <si>
-    <t>/wec0050</t>
-  </si>
-  <si>
-    <t>wec_0060</t>
-  </si>
-  <si>
-    <t>修改手机号</t>
-  </si>
-  <si>
-    <t>2015/8/18完成a</t>
-  </si>
-  <si>
-    <t>/wec0060</t>
-  </si>
-  <si>
-    <t>wec_0061</t>
-  </si>
-  <si>
-    <t>未注册提示页面</t>
-  </si>
-  <si>
-    <t>已增加</t>
-  </si>
-  <si>
-    <t>/wec0061</t>
-  </si>
-  <si>
-    <t>wec_0031会员卡详细</t>
-  </si>
-  <si>
-    <t>wec_0030我的卡包</t>
-  </si>
-  <si>
-    <t>wec_0032会员卡充值</t>
-  </si>
-  <si>
-    <t>wec_0033会员卡使用记录</t>
-  </si>
-  <si>
-    <t>1、在申请新卡时，电子卡号为手机号，会员卡号为后台生成的实体卡号，在绑定旧卡时，</t>
-  </si>
-  <si>
-    <t>那在显示卡信息的时候，会员卡号为后台的实体卡号，电子卡号也为后台的这个实体卡号，</t>
-  </si>
-  <si>
-    <t>正面显示电子卡号这个字段，背面二维码的信息为会员卡号这个字段</t>
-  </si>
-  <si>
-    <t>2、微信端申请的电子卡就显示手机号，绑定的旧卡就显示实体卡号</t>
-  </si>
-  <si>
-    <t>3、只能在线申请一张新卡（即电子卡号为手机号的卡，会员卡号为后台生成的实体卡号）；</t>
-  </si>
-  <si>
-    <t>再次进入时，“申请新卡”按钮变灰，不能再次申请，再次进入时，只能绑老卡</t>
-  </si>
-  <si>
-    <t>4、“电子卡号”只用于显示；实际用时，需要用到“会员卡号”列的值</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/wec0037</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/wec0038</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -353,8 +378,30 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000099"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -402,27 +449,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -459,9 +491,6 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -474,9 +503,6 @@
     <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -510,35 +536,327 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF000099"/>
+    </mruColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4096" name="图片 1" descr="rId1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="228600" y="447675"/>
+          <a:ext cx="4276725" cy="6705600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4097" name="图片 2" descr="rId2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="219075" y="8039100"/>
+          <a:ext cx="3933825" cy="6991350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4098" name="图片 3" descr="rId3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5172075" y="8058150"/>
+          <a:ext cx="3924300" cy="6991350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4099" name="图片 4" descr="rId4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5172075" y="428625"/>
+          <a:ext cx="3924300" cy="6981825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -836,6 +1154,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -868,15 +1187,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="B2:F21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
     <col min="2" max="2" width="6.375" style="7" customWidth="1"/>
@@ -887,7 +1203,7 @@
     <col min="7" max="7" width="3.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" s="2" customFormat="1" ht="18.75" customHeight="1" spans="2:6">
+    <row r="2" spans="2:6" s="2" customFormat="1" ht="18.75" customHeight="1">
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
@@ -904,8 +1220,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" customHeight="1" spans="2:6">
-      <c r="B3" s="29" t="s">
+    <row r="3" spans="2:6" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="B3" s="27" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="10" t="s">
@@ -921,390 +1237,409 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="2:6">
-      <c r="B4" s="30" t="s">
+    <row r="4" spans="2:6" ht="15" customHeight="1">
+      <c r="B4" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13" t="s">
+      <c r="E4" s="12"/>
+      <c r="F4" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" customHeight="1" spans="2:6">
-      <c r="B5" s="31" t="s">
+    <row r="5" spans="2:6" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="B5" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="2:6">
-      <c r="B6" s="32" t="s">
+    <row r="6" spans="2:6" ht="15" customHeight="1">
+      <c r="B6" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="2:6">
-      <c r="B7" s="32" t="s">
+    <row r="7" spans="2:6" ht="15" customHeight="1">
+      <c r="B7" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="2:6">
-      <c r="B8" s="30" t="s">
+    <row r="8" spans="2:6" ht="15" customHeight="1">
+      <c r="B8" s="28" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="2:6">
-      <c r="B9" s="30" t="s">
+    <row r="9" spans="2:6" ht="15" customHeight="1">
+      <c r="B9" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="2:6">
-      <c r="B10" s="33" t="s">
+    <row r="10" spans="2:6" ht="15" customHeight="1">
+      <c r="B10" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22" t="s">
+      <c r="E10" s="20"/>
+      <c r="F10" s="20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="2:6">
-      <c r="B11" s="33" t="s">
+    <row r="11" spans="2:6" ht="15" customHeight="1">
+      <c r="B11" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22" t="s">
+    </row>
+    <row r="12" spans="2:6" ht="15" customHeight="1">
+      <c r="B12" s="28" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="12" customHeight="1" spans="2:6">
-      <c r="B12" s="30" t="s">
+      <c r="C12" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="D12" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="E12" s="12"/>
+      <c r="F12" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13" t="s">
+    </row>
+    <row r="13" spans="2:6" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B13" s="21">
+        <v>11</v>
+      </c>
+      <c r="C13" s="22" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="13" s="4" customFormat="1" customHeight="1" spans="2:6">
-      <c r="B13" s="23">
-        <v>11</v>
-      </c>
-      <c r="C13" s="24" t="s">
+      <c r="D13" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="E13" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="F13" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="24" t="s">
+    </row>
+    <row r="14" spans="2:6" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B14" s="19">
+        <v>12</v>
+      </c>
+      <c r="C14" s="20" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="14" s="4" customFormat="1" customHeight="1" spans="2:6">
-      <c r="B14" s="21">
-        <v>12</v>
-      </c>
-      <c r="C14" s="22" t="s">
+      <c r="D14" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="E14" s="20"/>
+      <c r="F14" s="34" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B15" s="32"/>
+      <c r="C15" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B16" s="32"/>
+      <c r="C16" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" s="5" customFormat="1" ht="15" customHeight="1">
+      <c r="B17" s="23">
+        <v>13</v>
+      </c>
+      <c r="C17" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22" t="s">
+      <c r="D17" s="16" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="15" s="5" customFormat="1" customHeight="1" spans="2:6">
-      <c r="B15" s="25">
-        <v>13</v>
-      </c>
-      <c r="C15" s="18" t="s">
+      <c r="E17" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="F17" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="18" t="s">
+    </row>
+    <row r="18" spans="2:6" ht="15" customHeight="1">
+      <c r="B18" s="23">
+        <v>14</v>
+      </c>
+      <c r="C18" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="D18" s="17" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="16" customHeight="1" spans="2:6">
-      <c r="B16" s="25">
-        <v>14</v>
-      </c>
-      <c r="C16" s="19" t="s">
+      <c r="E18" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="F18" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="19" t="s">
+    </row>
+    <row r="19" spans="2:6" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B19" s="23">
+        <v>15</v>
+      </c>
+      <c r="C19" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="D19" s="24" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="17" s="4" customFormat="1" customHeight="1" spans="2:6">
-      <c r="B17" s="25">
-        <v>15</v>
-      </c>
-      <c r="C17" s="26" t="s">
+      <c r="E19" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="26" t="s">
+    </row>
+    <row r="20" spans="2:6" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="B20" s="25">
+        <v>16</v>
+      </c>
+      <c r="C20" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="26" t="s">
+      <c r="D20" s="26" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="18" s="6" customFormat="1" customHeight="1" spans="2:6">
-      <c r="B18" s="27">
-        <v>16</v>
-      </c>
-      <c r="C18" s="28" t="s">
+      <c r="E20" s="26"/>
+      <c r="F20" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="28" t="s">
+    </row>
+    <row r="21" spans="2:6" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="B21" s="9">
+        <v>17</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28" t="s">
+      <c r="D21" s="10" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="19" s="3" customFormat="1" customHeight="1" spans="2:6">
-      <c r="B19" s="9">
-        <v>17</v>
-      </c>
-      <c r="C19" s="10" t="s">
+      <c r="E21" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="F21" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="10" t="s">
+    </row>
+    <row r="22" spans="2:6" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="B22" s="13">
+        <v>18</v>
+      </c>
+      <c r="C22" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="D22" s="14" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="20" s="3" customFormat="1" customHeight="1" spans="2:6">
-      <c r="B20" s="14">
-        <v>18</v>
-      </c>
-      <c r="C20" s="15" t="s">
+      <c r="E22" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="F22" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="15" t="s">
+    </row>
+    <row r="23" spans="2:6" s="5" customFormat="1" ht="15" customHeight="1">
+      <c r="B23" s="23">
+        <v>19</v>
+      </c>
+      <c r="C23" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="D23" s="16" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="21" s="5" customFormat="1" customHeight="1" spans="2:6">
-      <c r="B21" s="25">
-        <v>19</v>
-      </c>
-      <c r="C21" s="18" t="s">
+      <c r="E23" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="F23" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>80</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="73" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="73" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AB46"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" s="1" customFormat="1" ht="18" customHeight="1" spans="2:28">
+    <row r="2" spans="2:28" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="B2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" s="1" customFormat="1" ht="19.5" customHeight="1">
+      <c r="B46" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AB46" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="1" ht="19.5" customHeight="1" spans="2:28">
-      <c r="B46" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB46" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:3">
       <c r="B2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="C3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="C4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="3:3">
-      <c r="C3" t="s">
+    <row r="6" spans="2:3">
+      <c r="B6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="3:3">
-      <c r="C4" t="s">
+    <row r="8" spans="2:3">
+      <c r="B8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
-      <c r="B6" t="s">
+    <row r="9" spans="2:3">
+      <c r="C9" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
-      <c r="B8" t="s">
+    <row r="11" spans="2:3">
+      <c r="B11" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="3:3">
-      <c r="C9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" t="s">
-        <v>91</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>